--- a/target/test-classes/excel/Testdata1.xlsx
+++ b/target/test-classes/excel/Testdata1.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16275" windowHeight="12165"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -57,6 +58,21 @@
   </si>
   <si>
     <t>hggdyw78</t>
+  </si>
+  <si>
+    <t>Queues</t>
+  </si>
+  <si>
+    <t>Implementation of Queue in Python</t>
+  </si>
+  <si>
+    <t>Implementation using collections.deque</t>
+  </si>
+  <si>
+    <t>Implementation using array</t>
+  </si>
+  <si>
+    <t>Queue Operations</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1009,7 @@
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1064,4 +1080,49 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="38.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/target/test-classes/excel/Testdata1.xlsx
+++ b/target/test-classes/excel/Testdata1.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="16275" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -58,21 +57,6 @@
   </si>
   <si>
     <t>hggdyw78</t>
-  </si>
-  <si>
-    <t>Queues</t>
-  </si>
-  <si>
-    <t>Implementation of Queue in Python</t>
-  </si>
-  <si>
-    <t>Implementation using collections.deque</t>
-  </si>
-  <si>
-    <t>Implementation using array</t>
-  </si>
-  <si>
-    <t>Queue Operations</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +993,7 @@
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1080,49 +1064,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
-  <cols>
-    <col min="1" max="1" width="38.2857142857143" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>